--- a/Burn-Down Chart.xlsx
+++ b/Burn-Down Chart.xlsx
@@ -135,10 +135,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>42134</c:v>
                 </c:pt>
@@ -162,38 +162,50 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>42141</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42142</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42143</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$9</c:f>
+              <c:f>Sheet1!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>42</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -220,10 +232,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>42134</c:v>
                 </c:pt>
@@ -247,16 +259,22 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>42141</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42142</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42143</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$9</c:f>
+              <c:f>Sheet1!$C$2:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>48</c:v>
                 </c:pt>
@@ -279,6 +297,12 @@
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
@@ -710,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C9" sqref="C9:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,7 +759,7 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B7" si="0">B3+6</f>
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C2">
         <v>48</v>
@@ -747,7 +771,7 @@
       </c>
       <c r="B3">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C3">
         <f>C2-8</f>
@@ -760,10 +784,10 @@
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C9" si="1">C3</f>
+        <f t="shared" ref="C4:C11" si="1">C3</f>
         <v>40</v>
       </c>
     </row>
@@ -773,7 +797,7 @@
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
@@ -786,7 +810,7 @@
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
@@ -799,7 +823,7 @@
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
@@ -812,7 +836,7 @@
       </c>
       <c r="B8">
         <f>B9+6</f>
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
@@ -824,9 +848,35 @@
         <v>42141</v>
       </c>
       <c r="B9">
+        <f t="shared" ref="B9:B10" si="2">B10+6</f>
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>42142</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>42143</v>
+      </c>
+      <c r="B11">
         <v>0</v>
       </c>
-      <c r="C9">
+      <c r="C11">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>

--- a/Burn-Down Chart.xlsx
+++ b/Burn-Down Chart.xlsx
@@ -282,28 +282,28 @@
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -737,7 +737,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:C11"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -787,8 +787,8 @@
         <v>42</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C11" si="1">C3</f>
-        <v>40</v>
+        <f>C3-8</f>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -800,8 +800,8 @@
         <v>36</v>
       </c>
       <c r="C5">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <f>C4-8</f>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -813,8 +813,8 @@
         <v>30</v>
       </c>
       <c r="C6">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <f t="shared" ref="C4:C11" si="1">C5</f>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -827,7 +827,7 @@
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -840,7 +840,7 @@
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -853,7 +853,7 @@
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -866,7 +866,7 @@
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -878,7 +878,7 @@
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Burn-Down Chart.xlsx
+++ b/Burn-Down Chart.xlsx
@@ -288,22 +288,22 @@
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -737,7 +737,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,8 +813,8 @@
         <v>30</v>
       </c>
       <c r="C6">
-        <f t="shared" ref="C4:C11" si="1">C5</f>
-        <v>24</v>
+        <f>C5-4</f>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -826,8 +826,8 @@
         <v>24</v>
       </c>
       <c r="C7">
-        <f t="shared" si="1"/>
-        <v>24</v>
+        <f t="shared" ref="C4:C11" si="1">C6</f>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -840,7 +840,7 @@
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -853,7 +853,7 @@
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -866,7 +866,7 @@
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -878,7 +878,7 @@
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Burn-Down Chart.xlsx
+++ b/Burn-Down Chart.xlsx
@@ -291,19 +291,19 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -737,7 +737,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -826,8 +826,8 @@
         <v>24</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C4:C11" si="1">C6</f>
-        <v>20</v>
+        <f>C6-4</f>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -839,8 +839,8 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <f t="shared" ref="C4:C11" si="1">C7</f>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -853,7 +853,7 @@
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -866,7 +866,7 @@
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -878,7 +878,7 @@
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Burn-Down Chart.xlsx
+++ b/Burn-Down Chart.xlsx
@@ -11,7 +11,11 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -67,8 +71,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -300,10 +332,10 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -320,11 +352,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="163264384"/>
-        <c:axId val="186666368"/>
+        <c:axId val="184353536"/>
+        <c:axId val="184355456"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="163264384"/>
+        <c:axId val="184353536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -353,14 +385,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="186666368"/>
+        <c:crossAx val="184355456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="186666368"/>
+        <c:axId val="184355456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -390,7 +422,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163264384"/>
+        <c:crossAx val="184353536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -737,7 +769,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -839,7 +871,7 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C4:C11" si="1">C7</f>
+        <f t="shared" ref="C8:C11" si="1">C7</f>
         <v>16</v>
       </c>
     </row>
@@ -865,8 +897,8 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f>C9-8</f>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -878,7 +910,7 @@
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Burn-Down Chart.xlsx
+++ b/Burn-Down Chart.xlsx
@@ -352,11 +352,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="184353536"/>
-        <c:axId val="184355456"/>
+        <c:axId val="67554304"/>
+        <c:axId val="95909376"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="184353536"/>
+        <c:axId val="67554304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -385,14 +385,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184355456"/>
+        <c:crossAx val="95909376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="184355456"/>
+        <c:axId val="95909376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -422,7 +422,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184353536"/>
+        <c:crossAx val="67554304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
